--- a/biology/Zoologie/Falaise_d'Oucherotte/Falaise_d'Oucherotte.xlsx
+++ b/biology/Zoologie/Falaise_d'Oucherotte/Falaise_d'Oucherotte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Falaise_d%27Oucherotte</t>
+          <t>Falaise_d'Oucherotte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oucherotte est un hameau faisant partie de la commune de Bligny-sur-Ouche dans le département de la Côte-d'Or.
 Le site comporte une falaise calcaire, dominant la vallée de l’Ouche, au nord du hameau.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Falaise_d%27Oucherotte</t>
+          <t>Falaise_d'Oucherotte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site est classé Zone naturelle d'intérêt écologique, faunistique et floristique de type I, sous le numéro régional no 10040000 [1] et est protégé par un Arrêté de protection de Biotope[2] visant à la préservation des sites de nidification du faucon pèlerin[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site est classé Zone naturelle d'intérêt écologique, faunistique et floristique de type I, sous le numéro régional no 10040000  et est protégé par un Arrêté de protection de Biotope visant à la préservation des sites de nidification du faucon pèlerin.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Falaise_d%27Oucherotte</t>
+          <t>Falaise_d'Oucherotte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Falaise_d%27Oucherotte</t>
+          <t>Falaise_d'Oucherotte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Oiseaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les falaises sont un site de nidification du Faucon pèlerin.
 </t>
